--- a/medicine/Enfance/Roselyne_Bertin/Roselyne_Bertin.xlsx
+++ b/medicine/Enfance/Roselyne_Bertin/Roselyne_Bertin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roselyne Bertin est une romancière française, née en 1947 à Marseille[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roselyne Bertin est une romancière française, née en 1947 à Marseille.
 Elle a écrit des livres pour la jeunesse mais aussi pour les adultes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de lettres, elle a enseigné en tant que professeur de français à Marseille et en Franche-Comté, dans un collège du Doubs[1]et aussi au collège André Malraux à Romans-sur-Isère dans la Drôme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de lettres, elle a enseigné en tant que professeur de français à Marseille et en Franche-Comté, dans un collège du Doubset aussi au collège André Malraux à Romans-sur-Isère dans la Drôme.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lettres à Cécile, Oskar Éditions, 2011[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lettres à Cécile, Oskar Éditions, 2011.
 Plus petit que soi, Rageot éditeur, Petit Roman, 2010.
 La Demoiselle et le troubadour, Rageot éditeur, collection Romans, 2009
 Léo a disparu, Rageot éditeur, 2007.
@@ -591,10 +607,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix des dévoreurs de livres[3] 2007 pour Léo a disparu
-Prix Jacques Asklund[4] 2009 pour Léo a disparu</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix des dévoreurs de livres 2007 pour Léo a disparu
+Prix Jacques Asklund 2009 pour Léo a disparu</t>
         </is>
       </c>
     </row>
